--- a/metrics/transfer_time/cleaned_data/nginx_05._opt.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_05._opt.xlsx
@@ -3313,10 +3313,18 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>1541548</v>
+      </c>
+      <c r="C144" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2642516</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4161846</v>
+      </c>
       <c r="F144" t="n">
         <v>32458</v>
       </c>
